--- a/src/assets/plantillas/plantilla_recursos.xlsx
+++ b/src/assets/plantillas/plantilla_recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVIF\INFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B08A153-8354-4729-A480-D17306703E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED04677-19B0-4797-BCBD-420BFB34AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{88819D51-C0CF-418E-9173-83EFA5635968}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="128">
   <si>
     <t>codigo_partida</t>
   </si>
@@ -563,17 +563,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -603,12 +603,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -991,16 +994,16 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1010,13 +1013,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1064,9 +1067,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1147,9 +1148,9 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -1158,13 +1159,11 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1178,10 +1177,10 @@
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1195,10 +1194,10 @@
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1212,10 +1211,10 @@
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1227,10 +1226,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1244,10 +1243,10 @@
       <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1261,10 +1260,10 @@
       <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1278,10 +1277,10 @@
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1295,10 +1294,10 @@
       <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1312,10 +1311,10 @@
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1329,10 +1328,10 @@
       <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1346,10 +1345,10 @@
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1363,10 +1362,10 @@
       <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1380,10 +1379,10 @@
       <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1394,13 +1393,13 @@
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1414,10 +1413,10 @@
       <c r="C26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1431,10 +1430,10 @@
       <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1448,10 +1447,10 @@
       <c r="C28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1465,10 +1464,10 @@
       <c r="C29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1482,10 +1481,10 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1499,10 +1498,10 @@
       <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1516,10 +1515,10 @@
       <c r="C32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1533,10 +1532,10 @@
       <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1550,10 +1549,10 @@
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1567,10 +1566,10 @@
       <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1584,10 +1583,10 @@
       <c r="C36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1601,10 +1600,10 @@
       <c r="C37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1618,10 +1617,10 @@
       <c r="C38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1635,10 +1634,10 @@
       <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1652,10 +1651,10 @@
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1669,10 +1668,10 @@
       <c r="C41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1686,10 +1685,10 @@
       <c r="C42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1703,10 +1702,10 @@
       <c r="C43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1720,10 +1719,10 @@
       <c r="C44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1737,10 +1736,10 @@
       <c r="C45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1754,10 +1753,10 @@
       <c r="C46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1771,10 +1770,10 @@
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1788,10 +1787,10 @@
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1805,10 +1804,10 @@
       <c r="C49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1822,10 +1821,10 @@
       <c r="C50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1839,10 +1838,10 @@
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1856,10 +1855,10 @@
       <c r="C52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1873,10 +1872,10 @@
       <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1890,10 +1889,10 @@
       <c r="C54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1907,10 +1906,10 @@
       <c r="C55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1924,10 +1923,10 @@
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1941,10 +1940,10 @@
       <c r="C57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1958,10 +1957,10 @@
       <c r="C58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1975,10 +1974,10 @@
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1992,10 +1991,10 @@
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2009,10 +2008,10 @@
       <c r="C61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2026,10 +2025,10 @@
       <c r="C62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2043,10 +2042,10 @@
       <c r="C63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2060,10 +2059,10 @@
       <c r="C64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2077,10 +2076,10 @@
       <c r="C65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2094,10 +2093,10 @@
       <c r="C66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2111,10 +2110,10 @@
       <c r="C67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="6" t="s">
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2128,10 +2127,10 @@
       <c r="C68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2145,10 +2144,10 @@
       <c r="C69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2162,10 +2161,10 @@
       <c r="C70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2179,10 +2178,10 @@
       <c r="C71" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2196,10 +2195,10 @@
       <c r="C72" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2213,10 +2212,10 @@
       <c r="C73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2230,10 +2229,10 @@
       <c r="C74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2247,10 +2246,10 @@
       <c r="C75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="6" t="s">
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2264,10 +2263,10 @@
       <c r="C76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="6" t="s">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2281,10 +2280,10 @@
       <c r="C77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2298,10 +2297,10 @@
       <c r="C78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2315,10 +2314,10 @@
       <c r="C79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="6" t="s">
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2332,10 +2331,10 @@
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2349,10 +2348,10 @@
       <c r="C81" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2366,10 +2365,10 @@
       <c r="C82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2383,10 +2382,10 @@
       <c r="C83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="6" t="s">
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2400,10 +2399,10 @@
       <c r="C84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2417,10 +2416,10 @@
       <c r="C85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2434,10 +2433,10 @@
       <c r="C86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2451,10 +2450,10 @@
       <c r="C87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2468,10 +2467,10 @@
       <c r="C88" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2485,10 +2484,10 @@
       <c r="C89" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2502,10 +2501,10 @@
       <c r="C90" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2519,10 +2518,10 @@
       <c r="C91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="6" t="s">
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2536,10 +2535,10 @@
       <c r="C92" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="6" t="s">
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2553,10 +2552,10 @@
       <c r="C93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2570,10 +2569,10 @@
       <c r="C94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="6" t="s">
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2587,10 +2586,10 @@
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2604,10 +2603,10 @@
       <c r="C96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="6" t="s">
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2619,10 +2618,10 @@
         <v>100</v>
       </c>
       <c r="C97" s="7"/>
-      <c r="D97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="6" t="s">
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2636,10 +2635,10 @@
       <c r="C98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="6" t="s">
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2653,10 +2652,10 @@
       <c r="C99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="6" t="s">
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2670,10 +2669,10 @@
       <c r="C100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="6" t="s">
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2687,10 +2686,10 @@
       <c r="C101" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="6" t="s">
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2704,10 +2703,10 @@
       <c r="C102" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="6" t="s">
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2721,10 +2720,10 @@
       <c r="C103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="6" t="s">
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2738,10 +2737,10 @@
       <c r="C104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="6" t="s">
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2755,10 +2754,10 @@
       <c r="C105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="6" t="s">
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2772,10 +2771,10 @@
       <c r="C106" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="6" t="s">
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2789,10 +2788,10 @@
       <c r="C107" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2806,10 +2805,10 @@
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="6" t="s">
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2823,10 +2822,10 @@
       <c r="C109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="6" t="s">
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2840,10 +2839,10 @@
       <c r="C110" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="6" t="s">
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2857,10 +2856,10 @@
       <c r="C111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="6" t="s">
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2874,10 +2873,10 @@
       <c r="C112" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="6" t="s">
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2891,10 +2890,10 @@
       <c r="C113" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="6" t="s">
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2908,10 +2907,10 @@
       <c r="C114" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2925,10 +2924,10 @@
       <c r="C115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="6" t="s">
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2942,10 +2941,10 @@
       <c r="C116" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="6" t="s">
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2959,10 +2958,10 @@
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="6" t="s">
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2976,10 +2975,10 @@
       <c r="C118" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2993,10 +2992,10 @@
       <c r="C119" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="6" t="s">
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3010,10 +3009,10 @@
       <c r="C120" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="6" t="s">
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3027,10 +3026,10 @@
       <c r="C121" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="6" t="s">
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3044,10 +3043,10 @@
       <c r="C122" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122" s="6" t="s">
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3061,10 +3060,10 @@
       <c r="C123" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="6" t="s">
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3078,10 +3077,10 @@
       <c r="C124" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="6" t="s">
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3095,10 +3094,10 @@
       <c r="C125" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="6" t="s">
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3112,10 +3111,10 @@
       <c r="C126" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" s="6" t="s">
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3129,10 +3128,10 @@
       <c r="C127" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="6" t="s">
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3146,10 +3145,10 @@
       <c r="C128" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" s="6" t="s">
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3163,10 +3162,10 @@
       <c r="C129" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="6" t="s">
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3180,15 +3179,15 @@
       <c r="C130" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="6" t="s">
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j8J7CA08dvdhTla9EHh5Tv+OSYekbnK4I1QMkenExyc+Ytp8T+iC2HB+AP5JntRdYjdJFVDh1LZ6Q/e7VrE/dA==" saltValue="raqmLGJ+0g88dNFh88DCEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pT19j9c67EUHBkLI3UTWVchna2mROuh+7YXdB0g4vTPneLWnTIQ00tYrm2AiEFwyjz2ErE7T9EKmtlzsrf47HA==" saltValue="Tx06UMfQK5ie7hZjAwJ4wA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="A2:E130">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>NOT(ISERROR(SEARCH("(NO CARGAR)",$B2)))</formula>
